--- a/tests/files/applications.xlsx
+++ b/tests/files/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\mentormatch\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5A24E-E11B-44BA-AE6F-C09E3B8632EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDA186-3702-4C35-95D3-0A09416B40EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentor" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>preferred_functions</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>legal</t>
   </si>
 </sst>
 </file>
@@ -610,13 +616,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -862,7 +869,7 @@
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Male" dataDxfId="36"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="35"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Comments for the mentoring committee" dataDxfId="34"/>
-    <tableColumn id="31" xr3:uid="{191C9534-07BA-4A07-84DB-A0D34481F174}" name="function" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{191C9534-07BA-4A07-84DB-A0D34481F174}" name="function" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -904,7 +911,7 @@
     <tableColumn id="30" xr3:uid="{A44A8159-8842-4A19-A9E3-916A205D4490}" name="Please confirm you are willing and able to meet at least once a month with your mentor between April and December 2020." dataDxfId="4"/>
     <tableColumn id="31" xr3:uid="{A97144C3-8CF1-465E-A1C1-03D5D8BDA656}" name="Comments for the mentoring committee" dataDxfId="3"/>
     <tableColumn id="32" xr3:uid="{EB7B337A-CDF2-4D79-A02E-5EE6842FFC41}" name="function" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{094F3B86-E05F-40D5-8CBF-1239AC27056D}" name="preferred_functions" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{094F3B86-E05F-40D5-8CBF-1239AC27056D}" name="preferred_functions" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1416,9 @@
       <c r="AD2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="3"/>
+      <c r="AE2" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1498,7 +1507,9 @@
       <c r="AD3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="3"/>
+      <c r="AE3" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1585,7 +1596,9 @@
         <v>49</v>
       </c>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1674,7 +1687,9 @@
         <v>49</v>
       </c>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1763,7 +1778,9 @@
         <v>49</v>
       </c>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D1D5B0-6A85-4C9E-B6D1-7EF108D8DFB6}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2013,9 @@
       <c r="AE2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -2071,7 +2090,9 @@
         <v>49</v>
       </c>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -2162,7 +2183,9 @@
         <v>49</v>
       </c>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -2253,7 +2276,9 @@
         <v>49</v>
       </c>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -2344,7 +2369,9 @@
         <v>49</v>
       </c>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG6" s="3"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -2429,7 +2456,9 @@
       <c r="AE7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AF7" s="3"/>
+      <c r="AF7" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -2513,6 +2542,9 @@
       </c>
       <c r="AE8" s="3" t="s">
         <v>120</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
